--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
     <sheet name="Plan4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Estórias</t>
   </si>
@@ -63,16 +63,34 @@
   <si>
     <t>Eu como recepcionista gostaria de um cadastro de quartos, para facilitar a disponibilação e tipos de quartos</t>
   </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Impedimentos</t>
+  </si>
+  <si>
+    <t>Cadastrar clientes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +125,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -251,12 +275,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -288,10 +336,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1980,42 +2037,42 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{F933B26C-5A09-418B-9332-B2410EF506FA}" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" srcOrd="0" destOrd="0" parTransId="{63A15D6F-F7D6-4B2B-AA02-6127850B7E4D}" sibTransId="{F5A777B4-9DF8-40A9-9A4A-B2DDA985E15B}"/>
+    <dgm:cxn modelId="{7B722D3A-8B1B-48C8-B516-683F3505152B}" type="presOf" srcId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" destId="{6D9C23D7-067F-4473-9007-F08FCDE12986}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F0A7D5B6-D7D9-4440-BAF0-24D50E12F129}" type="presOf" srcId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" destId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7C88549B-1ECF-447C-B16D-81667F9AF746}" type="presOf" srcId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" destId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C6669C67-B98F-40C7-A1B5-9B8724D04353}" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" srcOrd="0" destOrd="0" parTransId="{3686F6C0-1600-489C-8055-651810A58356}" sibTransId="{90B3542C-1A25-4C83-BC46-81F48D9CC455}"/>
+    <dgm:cxn modelId="{37D5C00E-18C4-43E8-A88E-34B4B8A59B53}" type="presOf" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{104622E0-234D-454B-A2A3-F438C887299D}" type="presOf" srcId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" destId="{CE4B20AA-DF8F-412D-B380-6DEF208B48AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DB2AAC4F-5F7F-4035-8B6A-69EB9AA9E33D}" type="presOf" srcId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" destId="{E6D45AB3-4251-4C45-B0BC-6B5AC7499AF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9C5997E0-5C74-40E1-998C-A36748DB4633}" type="presOf" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{210252D1-D01E-4F45-848F-8046AB9F508F}" type="presOf" srcId="{40B8198C-2B3D-40D7-A79F-DD9F447FFCB1}" destId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{78E34F86-75EA-441D-AF05-BF4BA87EDDDD}" type="presOf" srcId="{63A15D6F-F7D6-4B2B-AA02-6127850B7E4D}" destId="{561721DE-941D-4E73-AE63-1A5513B19025}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6F55F28B-46C2-45C0-BAF3-5FDC5F88E1BC}" type="presOf" srcId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" destId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3449A62D-0E68-4E46-9EF8-B0CB237593F7}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" srcOrd="0" destOrd="0" parTransId="{13EC4A76-E31D-4237-9235-91707B629888}" sibTransId="{AC574DA4-A211-4F74-8CF2-9C8B9AB96BE3}"/>
+    <dgm:cxn modelId="{8C96770E-47CB-46FD-BFB9-84FB9DC855CC}" type="presOf" srcId="{A113D4DD-92C8-4ED7-9E70-4B9D3ABBC7A0}" destId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{47983312-FC5E-4082-9096-C0BB12398B8D}" type="presOf" srcId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" destId="{3B641322-069C-4EB1-BA6C-01FE9202579F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0100E950-9D17-4E9B-8B47-CB5B16A8D2FA}" type="presOf" srcId="{DA71E5C3-75BE-4DB4-9576-CA0538FA042E}" destId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{877D5E9F-B112-41FF-815F-647110CD8BED}" type="presOf" srcId="{13EC4A76-E31D-4237-9235-91707B629888}" destId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D66B0AE5-BA7D-46B4-8C25-4C67F582F575}" type="presOf" srcId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" destId="{1EE8213B-8589-4483-BB68-1501A6919453}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0CC1699D-B00F-41A5-A119-72E1028ADD74}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{14B461DD-2389-445A-88C1-A361BF5E2826}" srcOrd="1" destOrd="0" parTransId="{67F10231-6342-4181-9659-382BDA90397D}" sibTransId="{2EADB066-4DDC-4412-921C-7C7EA290F85B}"/>
+    <dgm:cxn modelId="{4D9DD75A-10A4-424E-AFE3-123DD03214D4}" type="presOf" srcId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" destId="{A2A02019-0FE8-480E-9834-4BA4D27B465A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FF256083-B538-4AE3-A780-7C5020713EB8}" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" srcOrd="1" destOrd="0" parTransId="{40B8198C-2B3D-40D7-A79F-DD9F447FFCB1}" sibTransId="{797FCE79-BE80-4A2F-9DEB-BDAA02F8D94E}"/>
+    <dgm:cxn modelId="{408DEFB5-10B4-4165-83C1-861A0BAB9527}" type="presOf" srcId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" destId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FD8CFC29-DFD1-4240-8114-AFD19FF1D81F}" type="presOf" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A79C9357-AB7C-4983-BAF2-637EFDCAB94F}" type="presOf" srcId="{3686F6C0-1600-489C-8055-651810A58356}" destId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{93EE3479-7664-4406-B6CE-77D61B56A080}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" srcOrd="2" destOrd="0" parTransId="{DA71E5C3-75BE-4DB4-9576-CA0538FA042E}" sibTransId="{E8D873E5-F709-44CC-A807-1E98C7EE74D7}"/>
+    <dgm:cxn modelId="{1285C59D-4801-4AE2-98C0-28CD19C9AC36}" type="presOf" srcId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" destId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{907A9BF0-7519-4E8B-B008-5D7AA316C93B}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" srcOrd="0" destOrd="0" parTransId="{B80328E6-88BD-48F8-8528-85E59C437806}" sibTransId="{2710B70C-FB00-41B2-9A0E-ED97797F6F78}"/>
+    <dgm:cxn modelId="{ED84392E-DDD7-4BB9-BA69-F35B1383644A}" type="presOf" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{F461A4D2-95EA-4B38-A12F-AE900595DB39}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{829921E9-A7C2-47A0-9925-FEC83D812286}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" srcOrd="1" destOrd="0" parTransId="{A113D4DD-92C8-4ED7-9E70-4B9D3ABBC7A0}" sibTransId="{1EF04151-1D0C-452D-AC5E-5C74406DDFA4}"/>
+    <dgm:cxn modelId="{FF6A4E6B-2927-4B25-B097-873ADFECB8D0}" type="presOf" srcId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" destId="{59514516-96D5-4A15-ADFB-8636BD4637F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9F4D01EA-0F23-4C4C-9692-BCE494595C84}" type="presOf" srcId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" destId="{66EA22DD-B2ED-4B7A-8914-D65C5AEF4AFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6F1AA206-BC4C-4024-833D-2906EDC4457E}" type="presOf" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{AE0274E7-2775-44D6-BE61-D0CDDDE7F459}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFC83D0D-3347-4A68-8886-41846542CCD0}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" srcOrd="3" destOrd="0" parTransId="{09A0408A-20FB-4F40-BFB7-E1E8962446A7}" sibTransId="{8884706E-316D-4710-9C2B-890A38BD7EFB}"/>
+    <dgm:cxn modelId="{A7393B29-4D05-463A-834D-3DE5F9D1889B}" type="presOf" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5C88F039-0607-4F8F-9931-E0B335D7DF2F}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" srcOrd="2" destOrd="0" parTransId="{34A7B376-E3EE-4C41-B899-637198B09336}" sibTransId="{FFDB2AC5-9EBA-48E6-BAD1-63225AA38EC8}"/>
     <dgm:cxn modelId="{D32F318A-E457-4174-89D2-4D25D479FE0E}" type="presOf" srcId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" destId="{4B418FFA-0328-4F5B-BEAF-6D092EA029CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A79C9357-AB7C-4983-BAF2-637EFDCAB94F}" type="presOf" srcId="{3686F6C0-1600-489C-8055-651810A58356}" destId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FD8CFC29-DFD1-4240-8114-AFD19FF1D81F}" type="presOf" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7B722D3A-8B1B-48C8-B516-683F3505152B}" type="presOf" srcId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" destId="{6D9C23D7-067F-4473-9007-F08FCDE12986}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{907A9BF0-7519-4E8B-B008-5D7AA316C93B}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" srcOrd="0" destOrd="0" parTransId="{B80328E6-88BD-48F8-8528-85E59C437806}" sibTransId="{2710B70C-FB00-41B2-9A0E-ED97797F6F78}"/>
-    <dgm:cxn modelId="{DB2AAC4F-5F7F-4035-8B6A-69EB9AA9E33D}" type="presOf" srcId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" destId="{E6D45AB3-4251-4C45-B0BC-6B5AC7499AF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{408DEFB5-10B4-4165-83C1-861A0BAB9527}" type="presOf" srcId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" destId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4D9DD75A-10A4-424E-AFE3-123DD03214D4}" type="presOf" srcId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" destId="{A2A02019-0FE8-480E-9834-4BA4D27B465A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ED84392E-DDD7-4BB9-BA69-F35B1383644A}" type="presOf" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{F461A4D2-95EA-4B38-A12F-AE900595DB39}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0CC1699D-B00F-41A5-A119-72E1028ADD74}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{14B461DD-2389-445A-88C1-A361BF5E2826}" srcOrd="1" destOrd="0" parTransId="{67F10231-6342-4181-9659-382BDA90397D}" sibTransId="{2EADB066-4DDC-4412-921C-7C7EA290F85B}"/>
-    <dgm:cxn modelId="{104622E0-234D-454B-A2A3-F438C887299D}" type="presOf" srcId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" destId="{CE4B20AA-DF8F-412D-B380-6DEF208B48AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A7393B29-4D05-463A-834D-3DE5F9D1889B}" type="presOf" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F0A7D5B6-D7D9-4440-BAF0-24D50E12F129}" type="presOf" srcId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" destId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{829921E9-A7C2-47A0-9925-FEC83D812286}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" srcOrd="1" destOrd="0" parTransId="{A113D4DD-92C8-4ED7-9E70-4B9D3ABBC7A0}" sibTransId="{1EF04151-1D0C-452D-AC5E-5C74406DDFA4}"/>
-    <dgm:cxn modelId="{210252D1-D01E-4F45-848F-8046AB9F508F}" type="presOf" srcId="{40B8198C-2B3D-40D7-A79F-DD9F447FFCB1}" destId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{47983312-FC5E-4082-9096-C0BB12398B8D}" type="presOf" srcId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" destId="{3B641322-069C-4EB1-BA6C-01FE9202579F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9F4D01EA-0F23-4C4C-9692-BCE494595C84}" type="presOf" srcId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" destId="{66EA22DD-B2ED-4B7A-8914-D65C5AEF4AFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F1AA206-BC4C-4024-833D-2906EDC4457E}" type="presOf" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{AE0274E7-2775-44D6-BE61-D0CDDDE7F459}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F933B26C-5A09-418B-9332-B2410EF506FA}" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" srcOrd="0" destOrd="0" parTransId="{63A15D6F-F7D6-4B2B-AA02-6127850B7E4D}" sibTransId="{F5A777B4-9DF8-40A9-9A4A-B2DDA985E15B}"/>
-    <dgm:cxn modelId="{D66B0AE5-BA7D-46B4-8C25-4C67F582F575}" type="presOf" srcId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" destId="{1EE8213B-8589-4483-BB68-1501A6919453}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8C96770E-47CB-46FD-BFB9-84FB9DC855CC}" type="presOf" srcId="{A113D4DD-92C8-4ED7-9E70-4B9D3ABBC7A0}" destId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EFC83D0D-3347-4A68-8886-41846542CCD0}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" srcOrd="3" destOrd="0" parTransId="{09A0408A-20FB-4F40-BFB7-E1E8962446A7}" sibTransId="{8884706E-316D-4710-9C2B-890A38BD7EFB}"/>
-    <dgm:cxn modelId="{93EE3479-7664-4406-B6CE-77D61B56A080}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" srcOrd="2" destOrd="0" parTransId="{DA71E5C3-75BE-4DB4-9576-CA0538FA042E}" sibTransId="{E8D873E5-F709-44CC-A807-1E98C7EE74D7}"/>
-    <dgm:cxn modelId="{9C5997E0-5C74-40E1-998C-A36748DB4633}" type="presOf" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7C88549B-1ECF-447C-B16D-81667F9AF746}" type="presOf" srcId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" destId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F55F28B-46C2-45C0-BAF3-5FDC5F88E1BC}" type="presOf" srcId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" destId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{78E34F86-75EA-441D-AF05-BF4BA87EDDDD}" type="presOf" srcId="{63A15D6F-F7D6-4B2B-AA02-6127850B7E4D}" destId="{561721DE-941D-4E73-AE63-1A5513B19025}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FF256083-B538-4AE3-A780-7C5020713EB8}" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" srcOrd="1" destOrd="0" parTransId="{40B8198C-2B3D-40D7-A79F-DD9F447FFCB1}" sibTransId="{797FCE79-BE80-4A2F-9DEB-BDAA02F8D94E}"/>
-    <dgm:cxn modelId="{877D5E9F-B112-41FF-815F-647110CD8BED}" type="presOf" srcId="{13EC4A76-E31D-4237-9235-91707B629888}" destId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1285C59D-4801-4AE2-98C0-28CD19C9AC36}" type="presOf" srcId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" destId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C6669C67-B98F-40C7-A1B5-9B8724D04353}" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" srcOrd="0" destOrd="0" parTransId="{3686F6C0-1600-489C-8055-651810A58356}" sibTransId="{90B3542C-1A25-4C83-BC46-81F48D9CC455}"/>
-    <dgm:cxn modelId="{37D5C00E-18C4-43E8-A88E-34B4B8A59B53}" type="presOf" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0100E950-9D17-4E9B-8B47-CB5B16A8D2FA}" type="presOf" srcId="{DA71E5C3-75BE-4DB4-9576-CA0538FA042E}" destId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FF6A4E6B-2927-4B25-B097-873ADFECB8D0}" type="presOf" srcId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" destId="{59514516-96D5-4A15-ADFB-8636BD4637F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2537B0D7-FB90-450D-A912-B9AF7BAB7927}" type="presOf" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{A8052D21-1DA6-49AE-8963-1200AF22D578}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6803E034-3561-4769-B0E7-6FAB90EE5AAD}" type="presParOf" srcId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" destId="{8A906A91-E82B-441D-ACD0-B2561649193A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{06FA696F-B346-45ED-ADA0-3E4802201C0C}" type="presParOf" srcId="{8A906A91-E82B-441D-ACD0-B2561649193A}" destId="{14C490B6-A45F-4D0D-B665-E540B2CCCE88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -2088,7 +2145,7 @@
   <dgm:whole/>
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns="" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
@@ -5512,7 +5569,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5547,7 +5603,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -5723,14 +5778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -5738,7 +5793,7 @@
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -5755,7 +5810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5773,7 +5828,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -5791,7 +5846,7 @@
         <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -5809,7 +5864,7 @@
         <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -5827,7 +5882,7 @@
         <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -5845,7 +5900,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -5863,7 +5918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -5881,7 +5936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -5899,7 +5954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -5917,7 +5972,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30.75" thickBot="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5945,36 +6000,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Lista de Requisitos" sheetId="1" r:id="rId1"/>
+    <sheet name="Hierarquia dos Requisitos" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint1" sheetId="2" r:id="rId3"/>
     <sheet name="Plan4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Estórias</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Eu como recepcionista gostaria de uma forma para realizar check-out pois é necessário para pagamento da hospedagem</t>
   </si>
   <si>
-    <t>Eu como recepcionista gostaria de um controle de reservas para facilitar o processo de reservas</t>
-  </si>
-  <si>
     <t>Eu como gerente quero manter um cadastro atualizado de clientes, para ter maior domínio sobre os cadastros (Incluir, editar, excluir e pesquisar)</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Eu como recepcionista gostaria de um cadastro de quartos, para facilitar a disponibilação e tipos de quartos</t>
-  </si>
-  <si>
-    <t>Requisitos</t>
   </si>
   <si>
     <t>To do</t>
@@ -79,7 +70,13 @@
     <t>Impedimentos</t>
   </si>
   <si>
-    <t>Cadastrar clientes</t>
+    <t>ID do Requisito</t>
+  </si>
+  <si>
+    <t>Eu como recepcionista gostaria de um cadastro de quartos, para facilitar a disponibilidade por tipo de quarto.</t>
+  </si>
+  <si>
+    <t>Eu como recepcionista gostaria de um controle de reservas para facilitar o processo de reservas.</t>
   </si>
 </sst>
 </file>
@@ -90,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +98,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -291,12 +294,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -304,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -336,14 +367,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1522,7 +1600,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}" type="pres">
-      <dgm:prSet presAssocID="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="4">
+      <dgm:prSet presAssocID="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="4" custLinFactNeighborX="1686" custLinFactNeighborY="-2248">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2037,1246 +2115,113 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{20ECC1ED-E4DC-450B-8588-6639B7E6263D}" type="presOf" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{907A9BF0-7519-4E8B-B008-5D7AA316C93B}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" srcOrd="0" destOrd="0" parTransId="{B80328E6-88BD-48F8-8528-85E59C437806}" sibTransId="{2710B70C-FB00-41B2-9A0E-ED97797F6F78}"/>
+    <dgm:cxn modelId="{B22882DF-1AFC-41A3-B99A-4672B9AAE7A1}" type="presOf" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7DE77810-7CDC-4526-8999-2AFBE4AA9266}" type="presOf" srcId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" destId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BBA5A2B5-286B-4305-85AA-1BED3F903318}" type="presOf" srcId="{63A15D6F-F7D6-4B2B-AA02-6127850B7E4D}" destId="{561721DE-941D-4E73-AE63-1A5513B19025}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EB688D00-1229-4382-8AE1-AD8A948A8194}" type="presOf" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{F461A4D2-95EA-4B38-A12F-AE900595DB39}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{54CFC1AD-08BA-43C4-9674-385979BEA98D}" type="presOf" srcId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" destId="{A2A02019-0FE8-480E-9834-4BA4D27B465A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DDD90D14-0AF3-47DB-8624-28DEED96823C}" type="presOf" srcId="{13EC4A76-E31D-4237-9235-91707B629888}" destId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9FE4E996-38E6-482D-9FCB-A4CD6BB39617}" type="presOf" srcId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" destId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3E9D8924-C3CD-4E77-9DA9-7F250273CE0F}" type="presOf" srcId="{DA71E5C3-75BE-4DB4-9576-CA0538FA042E}" destId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{654744E7-4411-44B3-B63D-048C34C23201}" type="presOf" srcId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" destId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{93EE3479-7664-4406-B6CE-77D61B56A080}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" srcOrd="2" destOrd="0" parTransId="{DA71E5C3-75BE-4DB4-9576-CA0538FA042E}" sibTransId="{E8D873E5-F709-44CC-A807-1E98C7EE74D7}"/>
+    <dgm:cxn modelId="{829921E9-A7C2-47A0-9925-FEC83D812286}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" srcOrd="1" destOrd="0" parTransId="{A113D4DD-92C8-4ED7-9E70-4B9D3ABBC7A0}" sibTransId="{1EF04151-1D0C-452D-AC5E-5C74406DDFA4}"/>
+    <dgm:cxn modelId="{EFC83D0D-3347-4A68-8886-41846542CCD0}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" srcOrd="3" destOrd="0" parTransId="{09A0408A-20FB-4F40-BFB7-E1E8962446A7}" sibTransId="{8884706E-316D-4710-9C2B-890A38BD7EFB}"/>
+    <dgm:cxn modelId="{F9C47E98-5D26-4AEE-B798-B1D948421D84}" type="presOf" srcId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" destId="{4B418FFA-0328-4F5B-BEAF-6D092EA029CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C6669C67-B98F-40C7-A1B5-9B8724D04353}" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" srcOrd="0" destOrd="0" parTransId="{3686F6C0-1600-489C-8055-651810A58356}" sibTransId="{90B3542C-1A25-4C83-BC46-81F48D9CC455}"/>
+    <dgm:cxn modelId="{6E4A89AC-AEE0-45D8-8A47-090160D545AB}" type="presOf" srcId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" destId="{6D9C23D7-067F-4473-9007-F08FCDE12986}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{145F9CBB-61BC-44D8-9489-FAA478F40A06}" type="presOf" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FF256083-B538-4AE3-A780-7C5020713EB8}" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" srcOrd="1" destOrd="0" parTransId="{40B8198C-2B3D-40D7-A79F-DD9F447FFCB1}" sibTransId="{797FCE79-BE80-4A2F-9DEB-BDAA02F8D94E}"/>
+    <dgm:cxn modelId="{FE24D098-0240-4CFA-8B4A-BF849114B6F0}" type="presOf" srcId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" destId="{1EE8213B-8589-4483-BB68-1501A6919453}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9CBBDDF8-38EE-41E7-BBF6-3C354891BD85}" type="presOf" srcId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" destId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A5938714-A14C-4AE3-AD17-E53906B155CF}" type="presOf" srcId="{3686F6C0-1600-489C-8055-651810A58356}" destId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{968D755F-A2BD-4543-B5FA-D39ABAB24E88}" type="presOf" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{A8052D21-1DA6-49AE-8963-1200AF22D578}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C013106B-6B75-424E-BF31-03133B51BDD7}" type="presOf" srcId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" destId="{E6D45AB3-4251-4C45-B0BC-6B5AC7499AF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BE9B257C-7F44-4120-A40E-BCAD78AB6B85}" type="presOf" srcId="{40B8198C-2B3D-40D7-A79F-DD9F447FFCB1}" destId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3449A62D-0E68-4E46-9EF8-B0CB237593F7}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" srcOrd="0" destOrd="0" parTransId="{13EC4A76-E31D-4237-9235-91707B629888}" sibTransId="{AC574DA4-A211-4F74-8CF2-9C8B9AB96BE3}"/>
+    <dgm:cxn modelId="{80901A5A-8AB3-4043-90F9-E92B61E1F541}" type="presOf" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{AE0274E7-2775-44D6-BE61-D0CDDDE7F459}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0CC1699D-B00F-41A5-A119-72E1028ADD74}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{14B461DD-2389-445A-88C1-A361BF5E2826}" srcOrd="1" destOrd="0" parTransId="{67F10231-6342-4181-9659-382BDA90397D}" sibTransId="{2EADB066-4DDC-4412-921C-7C7EA290F85B}"/>
+    <dgm:cxn modelId="{5C88F039-0607-4F8F-9931-E0B335D7DF2F}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" srcOrd="2" destOrd="0" parTransId="{34A7B376-E3EE-4C41-B899-637198B09336}" sibTransId="{FFDB2AC5-9EBA-48E6-BAD1-63225AA38EC8}"/>
+    <dgm:cxn modelId="{536EE1EE-0CC1-49CE-8DE6-DDE8AF411507}" type="presOf" srcId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" destId="{3B641322-069C-4EB1-BA6C-01FE9202579F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B73D4B2C-9176-47DF-B525-B87E6B00F540}" type="presOf" srcId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" destId="{59514516-96D5-4A15-ADFB-8636BD4637F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B7CF7CB1-ECA5-4A1F-91BD-82E213BF680A}" type="presOf" srcId="{A113D4DD-92C8-4ED7-9E70-4B9D3ABBC7A0}" destId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{95840D96-B18F-4F75-9B29-9F9A1D8FE143}" type="presOf" srcId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" destId="{CE4B20AA-DF8F-412D-B380-6DEF208B48AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C6E7BEDB-1891-4C5A-A87F-8DDEE0DAB980}" type="presOf" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EDF889E6-A132-4323-AE1F-0DE3CB0341FD}" type="presOf" srcId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" destId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F4EF7D29-BC93-4D98-BA3C-4E26F2F2E7DE}" type="presOf" srcId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" destId="{66EA22DD-B2ED-4B7A-8914-D65C5AEF4AFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F933B26C-5A09-418B-9332-B2410EF506FA}" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" srcOrd="0" destOrd="0" parTransId="{63A15D6F-F7D6-4B2B-AA02-6127850B7E4D}" sibTransId="{F5A777B4-9DF8-40A9-9A4A-B2DDA985E15B}"/>
-    <dgm:cxn modelId="{7B722D3A-8B1B-48C8-B516-683F3505152B}" type="presOf" srcId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" destId="{6D9C23D7-067F-4473-9007-F08FCDE12986}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F0A7D5B6-D7D9-4440-BAF0-24D50E12F129}" type="presOf" srcId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" destId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7C88549B-1ECF-447C-B16D-81667F9AF746}" type="presOf" srcId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" destId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C6669C67-B98F-40C7-A1B5-9B8724D04353}" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" srcOrd="0" destOrd="0" parTransId="{3686F6C0-1600-489C-8055-651810A58356}" sibTransId="{90B3542C-1A25-4C83-BC46-81F48D9CC455}"/>
-    <dgm:cxn modelId="{37D5C00E-18C4-43E8-A88E-34B4B8A59B53}" type="presOf" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{104622E0-234D-454B-A2A3-F438C887299D}" type="presOf" srcId="{BD37EC08-57D9-4612-B0EB-0CBD3380088C}" destId="{CE4B20AA-DF8F-412D-B380-6DEF208B48AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DB2AAC4F-5F7F-4035-8B6A-69EB9AA9E33D}" type="presOf" srcId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" destId="{E6D45AB3-4251-4C45-B0BC-6B5AC7499AF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9C5997E0-5C74-40E1-998C-A36748DB4633}" type="presOf" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{210252D1-D01E-4F45-848F-8046AB9F508F}" type="presOf" srcId="{40B8198C-2B3D-40D7-A79F-DD9F447FFCB1}" destId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{78E34F86-75EA-441D-AF05-BF4BA87EDDDD}" type="presOf" srcId="{63A15D6F-F7D6-4B2B-AA02-6127850B7E4D}" destId="{561721DE-941D-4E73-AE63-1A5513B19025}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F55F28B-46C2-45C0-BAF3-5FDC5F88E1BC}" type="presOf" srcId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" destId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3449A62D-0E68-4E46-9EF8-B0CB237593F7}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{B02D1604-A721-42CB-9BAB-47EC4C9A1135}" srcOrd="0" destOrd="0" parTransId="{13EC4A76-E31D-4237-9235-91707B629888}" sibTransId="{AC574DA4-A211-4F74-8CF2-9C8B9AB96BE3}"/>
-    <dgm:cxn modelId="{8C96770E-47CB-46FD-BFB9-84FB9DC855CC}" type="presOf" srcId="{A113D4DD-92C8-4ED7-9E70-4B9D3ABBC7A0}" destId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{47983312-FC5E-4082-9096-C0BB12398B8D}" type="presOf" srcId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" destId="{3B641322-069C-4EB1-BA6C-01FE9202579F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0100E950-9D17-4E9B-8B47-CB5B16A8D2FA}" type="presOf" srcId="{DA71E5C3-75BE-4DB4-9576-CA0538FA042E}" destId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{877D5E9F-B112-41FF-815F-647110CD8BED}" type="presOf" srcId="{13EC4A76-E31D-4237-9235-91707B629888}" destId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D66B0AE5-BA7D-46B4-8C25-4C67F582F575}" type="presOf" srcId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" destId="{1EE8213B-8589-4483-BB68-1501A6919453}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0CC1699D-B00F-41A5-A119-72E1028ADD74}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{14B461DD-2389-445A-88C1-A361BF5E2826}" srcOrd="1" destOrd="0" parTransId="{67F10231-6342-4181-9659-382BDA90397D}" sibTransId="{2EADB066-4DDC-4412-921C-7C7EA290F85B}"/>
-    <dgm:cxn modelId="{4D9DD75A-10A4-424E-AFE3-123DD03214D4}" type="presOf" srcId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" destId="{A2A02019-0FE8-480E-9834-4BA4D27B465A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FF256083-B538-4AE3-A780-7C5020713EB8}" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" srcOrd="1" destOrd="0" parTransId="{40B8198C-2B3D-40D7-A79F-DD9F447FFCB1}" sibTransId="{797FCE79-BE80-4A2F-9DEB-BDAA02F8D94E}"/>
-    <dgm:cxn modelId="{408DEFB5-10B4-4165-83C1-861A0BAB9527}" type="presOf" srcId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" destId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FD8CFC29-DFD1-4240-8114-AFD19FF1D81F}" type="presOf" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A79C9357-AB7C-4983-BAF2-637EFDCAB94F}" type="presOf" srcId="{3686F6C0-1600-489C-8055-651810A58356}" destId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{93EE3479-7664-4406-B6CE-77D61B56A080}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" srcOrd="2" destOrd="0" parTransId="{DA71E5C3-75BE-4DB4-9576-CA0538FA042E}" sibTransId="{E8D873E5-F709-44CC-A807-1E98C7EE74D7}"/>
-    <dgm:cxn modelId="{1285C59D-4801-4AE2-98C0-28CD19C9AC36}" type="presOf" srcId="{5B3EDFFA-6689-4AFE-807F-CDFD67F870D5}" destId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{907A9BF0-7519-4E8B-B008-5D7AA316C93B}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" srcOrd="0" destOrd="0" parTransId="{B80328E6-88BD-48F8-8528-85E59C437806}" sibTransId="{2710B70C-FB00-41B2-9A0E-ED97797F6F78}"/>
-    <dgm:cxn modelId="{ED84392E-DDD7-4BB9-BA69-F35B1383644A}" type="presOf" srcId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" destId="{F461A4D2-95EA-4B38-A12F-AE900595DB39}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{829921E9-A7C2-47A0-9925-FEC83D812286}" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" srcOrd="1" destOrd="0" parTransId="{A113D4DD-92C8-4ED7-9E70-4B9D3ABBC7A0}" sibTransId="{1EF04151-1D0C-452D-AC5E-5C74406DDFA4}"/>
-    <dgm:cxn modelId="{FF6A4E6B-2927-4B25-B097-873ADFECB8D0}" type="presOf" srcId="{F451594A-7C4D-47C2-BD79-C9E5A056F48B}" destId="{59514516-96D5-4A15-ADFB-8636BD4637F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9F4D01EA-0F23-4C4C-9692-BCE494595C84}" type="presOf" srcId="{2F41E809-0700-4B80-A2BD-0926E98CC0F0}" destId="{66EA22DD-B2ED-4B7A-8914-D65C5AEF4AFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F1AA206-BC4C-4024-833D-2906EDC4457E}" type="presOf" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{AE0274E7-2775-44D6-BE61-D0CDDDE7F459}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EFC83D0D-3347-4A68-8886-41846542CCD0}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{C9B6D0C5-A6C9-4A85-9F9B-47CC11D06C3D}" srcOrd="3" destOrd="0" parTransId="{09A0408A-20FB-4F40-BFB7-E1E8962446A7}" sibTransId="{8884706E-316D-4710-9C2B-890A38BD7EFB}"/>
-    <dgm:cxn modelId="{A7393B29-4D05-463A-834D-3DE5F9D1889B}" type="presOf" srcId="{14B461DD-2389-445A-88C1-A361BF5E2826}" destId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5C88F039-0607-4F8F-9931-E0B335D7DF2F}" srcId="{F3A85485-D200-47FA-8CE8-8E1DBBD4E14C}" destId="{A1F3B15C-F9BB-4326-BD5C-B9331AB9C2F0}" srcOrd="2" destOrd="0" parTransId="{34A7B376-E3EE-4C41-B899-637198B09336}" sibTransId="{FFDB2AC5-9EBA-48E6-BAD1-63225AA38EC8}"/>
-    <dgm:cxn modelId="{D32F318A-E457-4174-89D2-4D25D479FE0E}" type="presOf" srcId="{8BC0D66D-A563-4157-95E5-073AE94F5552}" destId="{4B418FFA-0328-4F5B-BEAF-6D092EA029CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2537B0D7-FB90-450D-A912-B9AF7BAB7927}" type="presOf" srcId="{ADDD77F4-D64F-4DF4-8576-FD1B061FE3CD}" destId="{A8052D21-1DA6-49AE-8963-1200AF22D578}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6803E034-3561-4769-B0E7-6FAB90EE5AAD}" type="presParOf" srcId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" destId="{8A906A91-E82B-441D-ACD0-B2561649193A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{06FA696F-B346-45ED-ADA0-3E4802201C0C}" type="presParOf" srcId="{8A906A91-E82B-441D-ACD0-B2561649193A}" destId="{14C490B6-A45F-4D0D-B665-E540B2CCCE88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C0E119D2-04EA-4436-B44A-CB6A0A1B43B0}" type="presParOf" srcId="{14C490B6-A45F-4D0D-B665-E540B2CCCE88}" destId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{82A67AB3-2727-4D2A-80B5-DB8F9D56B89D}" type="presParOf" srcId="{14C490B6-A45F-4D0D-B665-E540B2CCCE88}" destId="{A8052D21-1DA6-49AE-8963-1200AF22D578}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CBB366E9-5304-4C62-B0A0-9C08DA477902}" type="presParOf" srcId="{8A906A91-E82B-441D-ACD0-B2561649193A}" destId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7B0D147C-3895-4C27-B1DE-EE23D74DE539}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FB02A411-6D11-4BC7-9894-37A03AA51231}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{F8EB7403-9BBC-4B0F-A081-D74F7BA28EF6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2FD6A0CD-CB51-4AA0-B467-DD3404F6F051}" type="presParOf" srcId="{F8EB7403-9BBC-4B0F-A081-D74F7BA28EF6}" destId="{182FD5DC-5DF0-4009-A429-E7AD6CEE27DF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0A035A2A-262D-4838-8465-41AA5C298C3B}" type="presParOf" srcId="{182FD5DC-5DF0-4009-A429-E7AD6CEE27DF}" destId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{93181065-6051-4492-BEFD-D1C708F31126}" type="presParOf" srcId="{182FD5DC-5DF0-4009-A429-E7AD6CEE27DF}" destId="{6D9C23D7-067F-4473-9007-F08FCDE12986}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DACB8CE7-1EE4-417D-9530-3A14FF7C9340}" type="presParOf" srcId="{F8EB7403-9BBC-4B0F-A081-D74F7BA28EF6}" destId="{7332B3AE-EE77-4967-BC1C-B7954D372775}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{82970409-815A-4501-9432-B12F9D233B34}" type="presParOf" srcId="{F8EB7403-9BBC-4B0F-A081-D74F7BA28EF6}" destId="{424984F9-4346-4F32-8D1C-CE2EFE6CA911}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0D2BD265-F954-4E75-8E2D-C933B79F59CA}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0D946A61-D9AD-4533-9290-0CED5C96E3F1}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{D8A208DB-1FB2-4825-82BC-6F942B90F32D}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F0A33DF4-0F8A-410E-ABE5-BEB243BE71E2}" type="presParOf" srcId="{D8A208DB-1FB2-4825-82BC-6F942B90F32D}" destId="{C53D792D-4670-4DF1-AD1F-C5B1EA0768E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{84568092-7D5F-4B51-84F7-03527DAB5EB1}" type="presParOf" srcId="{C53D792D-4670-4DF1-AD1F-C5B1EA0768E9}" destId="{59514516-96D5-4A15-ADFB-8636BD4637F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{42CA0E0F-8631-42CE-B495-19BD47762161}" type="presParOf" srcId="{C53D792D-4670-4DF1-AD1F-C5B1EA0768E9}" destId="{A2A02019-0FE8-480E-9834-4BA4D27B465A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{374F7F0A-4837-44DA-9E31-775E4F11497A}" type="presParOf" srcId="{D8A208DB-1FB2-4825-82BC-6F942B90F32D}" destId="{CCB091D6-93FB-49C0-87F7-85745F5E1B3C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CA66B606-3295-4609-B618-5EF4987CACCE}" type="presParOf" srcId="{D8A208DB-1FB2-4825-82BC-6F942B90F32D}" destId="{B7A447A4-6D47-4E74-B6AC-F9845AAA7CD1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4EB001B8-D942-4E1B-9E09-37A236146BB9}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{38F1EA3E-A0C5-483D-BFC0-BC861546E509}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{89219F40-AC05-4A69-8100-B7AFA05D0186}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9AF935EC-2B0C-4ADA-8269-BAEC220D4179}" type="presParOf" srcId="{89219F40-AC05-4A69-8100-B7AFA05D0186}" destId="{E10EC3DA-7743-496E-B3D7-3AD38CA4D2AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{477EECB2-EE7A-4E93-B57C-8E3DD73788E6}" type="presParOf" srcId="{E10EC3DA-7743-496E-B3D7-3AD38CA4D2AF}" destId="{3B641322-069C-4EB1-BA6C-01FE9202579F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{27B7EB9D-5BCA-4A39-914A-C15B01EBD77A}" type="presParOf" srcId="{E10EC3DA-7743-496E-B3D7-3AD38CA4D2AF}" destId="{4B418FFA-0328-4F5B-BEAF-6D092EA029CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{93E44AF2-9A95-4C96-B9F3-61BE8BD26C71}" type="presParOf" srcId="{89219F40-AC05-4A69-8100-B7AFA05D0186}" destId="{D1F87974-E4B5-44A1-A3DE-B69088737E43}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{37D41D7B-BE9D-46A4-915B-56BA1DF71F1E}" type="presParOf" srcId="{89219F40-AC05-4A69-8100-B7AFA05D0186}" destId="{CEEA1249-74BA-45D5-A968-CCFE9E8F84DB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FBB38231-E935-4D10-A5B7-EB219D08DEC6}" type="presParOf" srcId="{8A906A91-E82B-441D-ACD0-B2561649193A}" destId="{9BAA03F0-DA35-4987-AD0C-72BF12E8D34E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{16B98B95-9BB4-4935-ABDD-7F147616259D}" type="presParOf" srcId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" destId="{88B52218-8C38-4EE0-8336-3CF229AFB8EE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9A081D62-EF0C-44C1-8BFB-AACA735C5E9F}" type="presParOf" srcId="{88B52218-8C38-4EE0-8336-3CF229AFB8EE}" destId="{B353BE62-4ACE-497B-BEFC-7584D115625A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E03780DC-21CC-43F7-A821-36A1B58CCA2B}" type="presParOf" srcId="{B353BE62-4ACE-497B-BEFC-7584D115625A}" destId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9DEA37B9-89E7-40DE-BE38-E865DCBB4C55}" type="presParOf" srcId="{B353BE62-4ACE-497B-BEFC-7584D115625A}" destId="{AE0274E7-2775-44D6-BE61-D0CDDDE7F459}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{89C26ABC-8EC6-43AD-A25C-E891E304FDDE}" type="presParOf" srcId="{88B52218-8C38-4EE0-8336-3CF229AFB8EE}" destId="{33DB146B-8CEB-4668-8240-97B995E275D0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DDFCB1B8-D23F-4313-8E4D-DC723857C4BE}" type="presParOf" srcId="{33DB146B-8CEB-4668-8240-97B995E275D0}" destId="{561721DE-941D-4E73-AE63-1A5513B19025}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{70CCF503-4A05-4060-91D5-72A8AD811BA2}" type="presParOf" srcId="{33DB146B-8CEB-4668-8240-97B995E275D0}" destId="{D337AFC5-3C23-465F-B210-105CDDFCA782}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0BCA9902-54F7-4040-AC62-638DBD96C9B3}" type="presParOf" srcId="{D337AFC5-3C23-465F-B210-105CDDFCA782}" destId="{7B1ECE46-6F98-4BD9-81E7-70574711630F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{443E5E04-C86F-42D5-8C28-8BCC98074850}" type="presParOf" srcId="{7B1ECE46-6F98-4BD9-81E7-70574711630F}" destId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B139B4FE-2278-4A1C-BF89-C2F20EB2C06B}" type="presParOf" srcId="{7B1ECE46-6F98-4BD9-81E7-70574711630F}" destId="{1EE8213B-8589-4483-BB68-1501A6919453}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A59B7045-73FB-4580-AC30-7EAF918AA842}" type="presParOf" srcId="{D337AFC5-3C23-465F-B210-105CDDFCA782}" destId="{ACB1BA66-3907-4B1B-B00D-314012FD09B0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{616B2079-1E8F-4F4E-994F-A865885116FE}" type="presParOf" srcId="{D337AFC5-3C23-465F-B210-105CDDFCA782}" destId="{B5C9B7DF-AE95-4AA2-8432-FA64A1D1A78A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DF43502C-2869-42F7-A891-4EE83A167C29}" type="presParOf" srcId="{88B52218-8C38-4EE0-8336-3CF229AFB8EE}" destId="{082DBC7B-E598-44C9-9B71-C70A86709D0B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CD0BB9E2-0CB9-4AAF-B564-8272C49C0B12}" type="presParOf" srcId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" destId="{28B240FE-BDE2-44A5-B3AF-D6F3EB37F5CB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F5FF4FDF-2F29-4EB7-A09D-F1E86E76C802}" type="presParOf" srcId="{28B240FE-BDE2-44A5-B3AF-D6F3EB37F5CB}" destId="{17D81762-55DE-49A1-AF9B-763F10D35538}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2708DA89-5860-4843-96B5-F7758E66CB1B}" type="presParOf" srcId="{17D81762-55DE-49A1-AF9B-763F10D35538}" destId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{223F4679-9CCC-461F-9B9B-0485A5D7CDA6}" type="presParOf" srcId="{17D81762-55DE-49A1-AF9B-763F10D35538}" destId="{F461A4D2-95EA-4B38-A12F-AE900595DB39}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6DB86397-4800-454A-A655-FF34A5102960}" type="presParOf" srcId="{28B240FE-BDE2-44A5-B3AF-D6F3EB37F5CB}" destId="{4458B75C-828A-4364-91BA-0F9D5346323B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B5057762-E64C-4517-8886-F370A17C4B3A}" type="presParOf" srcId="{4458B75C-828A-4364-91BA-0F9D5346323B}" destId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{42157A50-E88E-43FD-87F5-97BD5C2A6319}" type="presParOf" srcId="{4458B75C-828A-4364-91BA-0F9D5346323B}" destId="{BAD9F8E1-2AB4-4C72-B653-AA9055BC2EEE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AC344094-AC81-40C4-BE7B-DA2BBC422C46}" type="presParOf" srcId="{BAD9F8E1-2AB4-4C72-B653-AA9055BC2EEE}" destId="{ECE4E179-B9EB-4532-8532-98AF28CB724C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0BDD01EF-F5A4-463D-89F2-F3299B8A7F8F}" type="presParOf" srcId="{ECE4E179-B9EB-4532-8532-98AF28CB724C}" destId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6E9C2867-1D0C-44D2-B707-E562542689F9}" type="presParOf" srcId="{ECE4E179-B9EB-4532-8532-98AF28CB724C}" destId="{CE4B20AA-DF8F-412D-B380-6DEF208B48AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{29EAE011-B5C3-46D6-A961-449C098A634B}" type="presParOf" srcId="{BAD9F8E1-2AB4-4C72-B653-AA9055BC2EEE}" destId="{8F024466-DA0C-4537-809B-2BCEBDB260F0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6222EA4A-0E2C-4470-B811-4D94BFF8D7AF}" type="presParOf" srcId="{BAD9F8E1-2AB4-4C72-B653-AA9055BC2EEE}" destId="{5B379919-B78E-4BF1-952E-A1DAA59957CA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{019B3FE3-4589-4B8B-9B41-E43E325D5BA0}" type="presParOf" srcId="{4458B75C-828A-4364-91BA-0F9D5346323B}" destId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BEE126D7-43AF-4C65-9900-17758B1BCDD3}" type="presParOf" srcId="{4458B75C-828A-4364-91BA-0F9D5346323B}" destId="{03D6002B-4553-42F1-8FD5-1D65AC28268E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{293B7121-4CA7-47F8-B56B-11FA50BF9078}" type="presParOf" srcId="{03D6002B-4553-42F1-8FD5-1D65AC28268E}" destId="{5D943948-C5C5-4BEE-8A64-7A49CEF1847B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{11D7E551-0868-43C7-BB73-618EDF9F5C02}" type="presParOf" srcId="{5D943948-C5C5-4BEE-8A64-7A49CEF1847B}" destId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{29D01CBB-6A78-4BC1-95A9-0BB6C2F8D63A}" type="presParOf" srcId="{5D943948-C5C5-4BEE-8A64-7A49CEF1847B}" destId="{66EA22DD-B2ED-4B7A-8914-D65C5AEF4AFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{82C2400E-9500-4FA4-B5E5-69E871569EC5}" type="presParOf" srcId="{03D6002B-4553-42F1-8FD5-1D65AC28268E}" destId="{4E549A88-1535-4BF7-B185-47A66A0881CA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8E90E6E9-E57F-48AC-9E70-21094071F078}" type="presParOf" srcId="{03D6002B-4553-42F1-8FD5-1D65AC28268E}" destId="{02C0AB25-C296-4A0A-A949-123B51254C4F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8FD9EEE2-50A1-45E7-8C47-0041B6D000B5}" type="presParOf" srcId="{28B240FE-BDE2-44A5-B3AF-D6F3EB37F5CB}" destId="{69BBBB03-1A20-4F63-9AAE-5522307B39EC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DC11F0CE-50FF-4410-A7EC-8C7C8103C5BA}" type="presParOf" srcId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" destId="{C426259A-5B58-489D-8B3D-605E03882BF7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1AEAD122-A89A-449F-B97C-241BEEBD7763}" type="presParOf" srcId="{C426259A-5B58-489D-8B3D-605E03882BF7}" destId="{0EE8CDE3-133D-4343-9B97-590AEFAE69CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F135B58D-FED1-4963-BD77-8031E31B9394}" type="presParOf" srcId="{0EE8CDE3-133D-4343-9B97-590AEFAE69CA}" destId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AF282286-8B80-42A6-8FA6-5C8F154AA3D3}" type="presParOf" srcId="{0EE8CDE3-133D-4343-9B97-590AEFAE69CA}" destId="{E6D45AB3-4251-4C45-B0BC-6B5AC7499AF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DAD00194-1186-4AA6-ADB5-9AA9308506EA}" type="presParOf" srcId="{C426259A-5B58-489D-8B3D-605E03882BF7}" destId="{080C1FD1-E86E-466F-9B50-849D78FE89DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E1429D72-13EF-4177-BC18-F841975530CD}" type="presParOf" srcId="{C426259A-5B58-489D-8B3D-605E03882BF7}" destId="{BF3B6FCB-297F-4F3C-8CFE-593D3A852E5D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3799B05F-25FB-4F28-8109-5CB1E89A0B92}" type="presParOf" srcId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" destId="{8A906A91-E82B-441D-ACD0-B2561649193A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C06272E9-9ACA-4B41-B8E3-64F9902AE6E2}" type="presParOf" srcId="{8A906A91-E82B-441D-ACD0-B2561649193A}" destId="{14C490B6-A45F-4D0D-B665-E540B2CCCE88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF2FA083-EFE8-453F-93E9-C959E32A6DAF}" type="presParOf" srcId="{14C490B6-A45F-4D0D-B665-E540B2CCCE88}" destId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F0AA46D5-64A4-4F23-9ACE-DE032FBB3FEF}" type="presParOf" srcId="{14C490B6-A45F-4D0D-B665-E540B2CCCE88}" destId="{A8052D21-1DA6-49AE-8963-1200AF22D578}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{889ACEAF-5E30-4D60-96AD-D555191D4CF3}" type="presParOf" srcId="{8A906A91-E82B-441D-ACD0-B2561649193A}" destId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9E2545B8-24A5-4C4F-8F36-176A2E8592BE}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1D6D0BA1-D140-4C0C-9193-F657921E57A8}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{F8EB7403-9BBC-4B0F-A081-D74F7BA28EF6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C57347F9-57C3-4432-8028-4115D12D3536}" type="presParOf" srcId="{F8EB7403-9BBC-4B0F-A081-D74F7BA28EF6}" destId="{182FD5DC-5DF0-4009-A429-E7AD6CEE27DF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{70A3A1CF-A5A1-4FE9-8CEE-65042C083442}" type="presParOf" srcId="{182FD5DC-5DF0-4009-A429-E7AD6CEE27DF}" destId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0B2B4D3C-471C-4418-B441-9248EF877E31}" type="presParOf" srcId="{182FD5DC-5DF0-4009-A429-E7AD6CEE27DF}" destId="{6D9C23D7-067F-4473-9007-F08FCDE12986}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{77CBBD98-6116-46AA-B5CF-77A580F10136}" type="presParOf" srcId="{F8EB7403-9BBC-4B0F-A081-D74F7BA28EF6}" destId="{7332B3AE-EE77-4967-BC1C-B7954D372775}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A23F564E-1258-4B7A-9F36-00F87912D2A3}" type="presParOf" srcId="{F8EB7403-9BBC-4B0F-A081-D74F7BA28EF6}" destId="{424984F9-4346-4F32-8D1C-CE2EFE6CA911}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F9DBE82B-6BAE-494D-96F8-087EF63A6C13}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C7FCAAE7-A9D3-4AB7-9F92-49B17FF2D0EE}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{D8A208DB-1FB2-4825-82BC-6F942B90F32D}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6E0AE643-3E59-49DB-936A-306E158F6FA1}" type="presParOf" srcId="{D8A208DB-1FB2-4825-82BC-6F942B90F32D}" destId="{C53D792D-4670-4DF1-AD1F-C5B1EA0768E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{45F47F3F-832D-4EE4-861F-3760E9C1CB6A}" type="presParOf" srcId="{C53D792D-4670-4DF1-AD1F-C5B1EA0768E9}" destId="{59514516-96D5-4A15-ADFB-8636BD4637F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C6652D2F-50F9-46C4-9B46-99A14FA54FD2}" type="presParOf" srcId="{C53D792D-4670-4DF1-AD1F-C5B1EA0768E9}" destId="{A2A02019-0FE8-480E-9834-4BA4D27B465A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{11BAD225-CCD7-4F45-8704-C1D1752DA5F7}" type="presParOf" srcId="{D8A208DB-1FB2-4825-82BC-6F942B90F32D}" destId="{CCB091D6-93FB-49C0-87F7-85745F5E1B3C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{01AEC4DE-8D46-4288-A142-C59334A7C5A3}" type="presParOf" srcId="{D8A208DB-1FB2-4825-82BC-6F942B90F32D}" destId="{B7A447A4-6D47-4E74-B6AC-F9845AAA7CD1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6701C24E-1ABB-4691-89B4-A75DB49244A7}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AD88F6DA-92BE-4721-B0B6-BF7D3CFFCE27}" type="presParOf" srcId="{A633E9B2-B10A-4343-88E4-9EDD3AB631BF}" destId="{89219F40-AC05-4A69-8100-B7AFA05D0186}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{10CF62D8-92DA-442A-9ADC-08EF44EF1D28}" type="presParOf" srcId="{89219F40-AC05-4A69-8100-B7AFA05D0186}" destId="{E10EC3DA-7743-496E-B3D7-3AD38CA4D2AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2EC8B4ED-E03A-42FB-90EB-602E1207A7DE}" type="presParOf" srcId="{E10EC3DA-7743-496E-B3D7-3AD38CA4D2AF}" destId="{3B641322-069C-4EB1-BA6C-01FE9202579F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7EC115C8-130E-4D6D-870B-3E753B3E0A92}" type="presParOf" srcId="{E10EC3DA-7743-496E-B3D7-3AD38CA4D2AF}" destId="{4B418FFA-0328-4F5B-BEAF-6D092EA029CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{18AFC1BA-7DB4-46D1-BD5B-BAE0C4D327C8}" type="presParOf" srcId="{89219F40-AC05-4A69-8100-B7AFA05D0186}" destId="{D1F87974-E4B5-44A1-A3DE-B69088737E43}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9DF975CC-3B2A-4908-86AF-F98FAB6FC27E}" type="presParOf" srcId="{89219F40-AC05-4A69-8100-B7AFA05D0186}" destId="{CEEA1249-74BA-45D5-A968-CCFE9E8F84DB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{91305C9E-AF9F-4CF1-B810-48527E1AF491}" type="presParOf" srcId="{8A906A91-E82B-441D-ACD0-B2561649193A}" destId="{9BAA03F0-DA35-4987-AD0C-72BF12E8D34E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1D4A046D-E40A-4CCA-BEEA-3D938AB73316}" type="presParOf" srcId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" destId="{88B52218-8C38-4EE0-8336-3CF229AFB8EE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DF4EC38F-1596-46EA-877C-8E4EE667F64D}" type="presParOf" srcId="{88B52218-8C38-4EE0-8336-3CF229AFB8EE}" destId="{B353BE62-4ACE-497B-BEFC-7584D115625A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B7BFC553-10C8-4BA7-9F02-8F1EFEBDFD51}" type="presParOf" srcId="{B353BE62-4ACE-497B-BEFC-7584D115625A}" destId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{01E8805C-6212-4941-AD29-8726CD2127A1}" type="presParOf" srcId="{B353BE62-4ACE-497B-BEFC-7584D115625A}" destId="{AE0274E7-2775-44D6-BE61-D0CDDDE7F459}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3342D806-2494-4C3C-88D1-CDC3D60C695B}" type="presParOf" srcId="{88B52218-8C38-4EE0-8336-3CF229AFB8EE}" destId="{33DB146B-8CEB-4668-8240-97B995E275D0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E3602CE9-EE84-4B64-8B95-9B30BEB6B416}" type="presParOf" srcId="{33DB146B-8CEB-4668-8240-97B995E275D0}" destId="{561721DE-941D-4E73-AE63-1A5513B19025}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0D20487A-6FD5-4E5E-9A54-717829DDB1D7}" type="presParOf" srcId="{33DB146B-8CEB-4668-8240-97B995E275D0}" destId="{D337AFC5-3C23-465F-B210-105CDDFCA782}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3A8FDBE9-9542-4A53-B9D6-EB3EE5AA2302}" type="presParOf" srcId="{D337AFC5-3C23-465F-B210-105CDDFCA782}" destId="{7B1ECE46-6F98-4BD9-81E7-70574711630F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FE01DCE7-8C30-4FA1-94CA-286ECE0E36E0}" type="presParOf" srcId="{7B1ECE46-6F98-4BD9-81E7-70574711630F}" destId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E92EB87C-7BBB-4641-A3E8-4F1C6FA8F5B1}" type="presParOf" srcId="{7B1ECE46-6F98-4BD9-81E7-70574711630F}" destId="{1EE8213B-8589-4483-BB68-1501A6919453}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5F11F9CE-0BEB-4060-A79F-3F13B4DE7B6F}" type="presParOf" srcId="{D337AFC5-3C23-465F-B210-105CDDFCA782}" destId="{ACB1BA66-3907-4B1B-B00D-314012FD09B0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{37049B57-533B-4435-AFE8-B900288D015D}" type="presParOf" srcId="{D337AFC5-3C23-465F-B210-105CDDFCA782}" destId="{B5C9B7DF-AE95-4AA2-8432-FA64A1D1A78A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0FF81649-D9C4-4E94-ACB3-03C5C75A5DAC}" type="presParOf" srcId="{88B52218-8C38-4EE0-8336-3CF229AFB8EE}" destId="{082DBC7B-E598-44C9-9B71-C70A86709D0B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D9DD734A-F1B6-4C7D-88A0-B5F37CE70546}" type="presParOf" srcId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" destId="{28B240FE-BDE2-44A5-B3AF-D6F3EB37F5CB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A1710F39-BFD0-41E1-B904-B4EE9DAD6938}" type="presParOf" srcId="{28B240FE-BDE2-44A5-B3AF-D6F3EB37F5CB}" destId="{17D81762-55DE-49A1-AF9B-763F10D35538}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{88712056-76A2-49E0-9AD5-8D94C37C878F}" type="presParOf" srcId="{17D81762-55DE-49A1-AF9B-763F10D35538}" destId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4063CCA5-53E3-45C5-B1F0-52CBCD9FB48D}" type="presParOf" srcId="{17D81762-55DE-49A1-AF9B-763F10D35538}" destId="{F461A4D2-95EA-4B38-A12F-AE900595DB39}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{44E271B6-FE38-40E2-B26B-E1CB63D248DC}" type="presParOf" srcId="{28B240FE-BDE2-44A5-B3AF-D6F3EB37F5CB}" destId="{4458B75C-828A-4364-91BA-0F9D5346323B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7A6C98C6-B3EF-48A1-9BC7-D812A7CA489C}" type="presParOf" srcId="{4458B75C-828A-4364-91BA-0F9D5346323B}" destId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7263FBD8-784A-44EE-B7FC-4619D6A2A2D2}" type="presParOf" srcId="{4458B75C-828A-4364-91BA-0F9D5346323B}" destId="{BAD9F8E1-2AB4-4C72-B653-AA9055BC2EEE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A8FCC0F9-8EFB-4709-8919-DCEA1CA6B2E2}" type="presParOf" srcId="{BAD9F8E1-2AB4-4C72-B653-AA9055BC2EEE}" destId="{ECE4E179-B9EB-4532-8532-98AF28CB724C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6E9CA50C-F5FB-46AA-8753-A6C10ED0D7BC}" type="presParOf" srcId="{ECE4E179-B9EB-4532-8532-98AF28CB724C}" destId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A13062C7-418B-4BE2-9BD4-4D7915CF6B2A}" type="presParOf" srcId="{ECE4E179-B9EB-4532-8532-98AF28CB724C}" destId="{CE4B20AA-DF8F-412D-B380-6DEF208B48AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A59CE4E6-6C14-4D07-80B7-A16EE959582A}" type="presParOf" srcId="{BAD9F8E1-2AB4-4C72-B653-AA9055BC2EEE}" destId="{8F024466-DA0C-4537-809B-2BCEBDB260F0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D2F3C2A4-1E0C-4AAE-833D-BC19365A499D}" type="presParOf" srcId="{BAD9F8E1-2AB4-4C72-B653-AA9055BC2EEE}" destId="{5B379919-B78E-4BF1-952E-A1DAA59957CA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{703AE77F-BF66-4D4C-A4EC-56A6B13CB46F}" type="presParOf" srcId="{4458B75C-828A-4364-91BA-0F9D5346323B}" destId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BB8FFAE9-B0AC-45F8-86C4-8A620BF0B328}" type="presParOf" srcId="{4458B75C-828A-4364-91BA-0F9D5346323B}" destId="{03D6002B-4553-42F1-8FD5-1D65AC28268E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D2BE1270-0C58-4F10-9B3C-C40DBE3771C3}" type="presParOf" srcId="{03D6002B-4553-42F1-8FD5-1D65AC28268E}" destId="{5D943948-C5C5-4BEE-8A64-7A49CEF1847B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B494665B-C902-4A41-B6A0-CD7485FD5AC7}" type="presParOf" srcId="{5D943948-C5C5-4BEE-8A64-7A49CEF1847B}" destId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D1140152-762E-44FE-8AC9-AF158079F48D}" type="presParOf" srcId="{5D943948-C5C5-4BEE-8A64-7A49CEF1847B}" destId="{66EA22DD-B2ED-4B7A-8914-D65C5AEF4AFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{36D8C37E-75C6-4BD2-BB92-4619CE75986A}" type="presParOf" srcId="{03D6002B-4553-42F1-8FD5-1D65AC28268E}" destId="{4E549A88-1535-4BF7-B185-47A66A0881CA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2B7C596B-B997-4F6B-94A7-01CD18C9F16C}" type="presParOf" srcId="{03D6002B-4553-42F1-8FD5-1D65AC28268E}" destId="{02C0AB25-C296-4A0A-A949-123B51254C4F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3D555088-CDF2-4D2D-AA3E-F548B4CF75D5}" type="presParOf" srcId="{28B240FE-BDE2-44A5-B3AF-D6F3EB37F5CB}" destId="{69BBBB03-1A20-4F63-9AAE-5522307B39EC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CC53A7AF-FDE5-433C-9C50-25C277FAF18B}" type="presParOf" srcId="{E0F079BB-18E2-40E7-8A11-F441C82C3596}" destId="{C426259A-5B58-489D-8B3D-605E03882BF7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5EF30D28-B8A5-49A9-AAB5-9DED16D4BF65}" type="presParOf" srcId="{C426259A-5B58-489D-8B3D-605E03882BF7}" destId="{0EE8CDE3-133D-4343-9B97-590AEFAE69CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ECB2A202-EFAD-42F2-A447-F959D8978CB8}" type="presParOf" srcId="{0EE8CDE3-133D-4343-9B97-590AEFAE69CA}" destId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{522847AB-AF47-4D7B-8050-B4CA515EDCEF}" type="presParOf" srcId="{0EE8CDE3-133D-4343-9B97-590AEFAE69CA}" destId="{E6D45AB3-4251-4C45-B0BC-6B5AC7499AF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1112731D-EB8C-4EC9-98D8-9E07B61BD3F4}" type="presParOf" srcId="{C426259A-5B58-489D-8B3D-605E03882BF7}" destId="{080C1FD1-E86E-466F-9B50-849D78FE89DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8C7180FE-CD66-457B-BF07-F5EC9EFCF123}" type="presParOf" srcId="{C426259A-5B58-489D-8B3D-605E03882BF7}" destId="{BF3B6FCB-297F-4F3C-8CFE-593D3A852E5D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
-  <dgm:extLst>
-    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns="" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-    </a:ext>
-  </dgm:extLst>
 </dgm:dataModel>
-</file>
-
-<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <dsp:spTree>
-    <dsp:nvGrpSpPr>
-      <dsp:cNvPr id="0" name=""/>
-      <dsp:cNvGrpSpPr/>
-    </dsp:nvGrpSpPr>
-    <dsp:grpSpPr/>
-    <dsp:sp modelId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="9455854" y="930170"/>
-          <a:ext cx="1023544" cy="355279"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="177639"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1023544" y="177639"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1023544" y="355279"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8432310" y="930170"/>
-          <a:ext cx="1023544" cy="355279"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="1023544" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1023544" y="177639"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="177639"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="355279"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{561721DE-941D-4E73-AE63-1A5513B19025}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6315647" y="928436"/>
-          <a:ext cx="91440" cy="382568"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="45753" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="45753" y="204928"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="204928"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="382568"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2777127" y="930170"/>
-          <a:ext cx="91440" cy="387728"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="49391" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="49391" y="210088"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="210088"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="387728"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2826518" y="930170"/>
-          <a:ext cx="1761173" cy="393294"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="215654"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1761173" y="215654"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1761173" y="393294"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1114509" y="930170"/>
-          <a:ext cx="1712009" cy="385639"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="1712009" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1712009" y="207999"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="207999"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="385639"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1980614" y="84266"/>
-          <a:ext cx="1691808" cy="845904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>5(Recepcionista) Cadastro de reservas</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1980614" y="84266"/>
-        <a:ext cx="1691808" cy="845904"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="268605" y="1315810"/>
-          <a:ext cx="1691808" cy="845904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>6(Recepcionista) Cadastro de despertador</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="268605" y="1315810"/>
-        <a:ext cx="1691808" cy="845904"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{59514516-96D5-4A15-ADFB-8636BD4637F9}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3811100" y="1323465"/>
-          <a:ext cx="1553182" cy="845904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>10(Gerente) Relatórios de hospedagem</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3811100" y="1323465"/>
-        <a:ext cx="1553182" cy="845904"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{3B641322-069C-4EB1-BA6C-01FE9202579F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1976943" y="1317899"/>
-          <a:ext cx="1691808" cy="845904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>8(Recepcionista) Checkout e pagamento das reservas</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1976943" y="1317899"/>
-        <a:ext cx="1691808" cy="845904"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5515496" y="56977"/>
-          <a:ext cx="1691808" cy="871459"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>2(Recepcionista) Cadastro de clientes</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5515496" y="56977"/>
-        <a:ext cx="1691808" cy="871459"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5515462" y="1311005"/>
-          <a:ext cx="1691808" cy="845904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>3(Gerente) Cadastro e exclusão de clientes</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5515462" y="1311005"/>
-        <a:ext cx="1691808" cy="845904"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8609950" y="84266"/>
-          <a:ext cx="1691808" cy="845904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>4(Recepcionista) Cadastro de quarto</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8609950" y="84266"/>
-        <a:ext cx="1691808" cy="845904"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7586406" y="1285450"/>
-          <a:ext cx="1691808" cy="845904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>1(Recepcionista) Quadro ocupação apartamentos</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="7586406" y="1285450"/>
-        <a:ext cx="1691808" cy="845904"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="9633494" y="1285450"/>
-          <a:ext cx="1691808" cy="845904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>7(Recepcionista) Controle de limpeza dos quartos</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="9633494" y="1285450"/>
-        <a:ext cx="1691808" cy="845904"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="10718519" y="84266"/>
-          <a:ext cx="1691808" cy="845904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>9(Gerente) Configuração de senha</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="10718519" y="84266"/>
-        <a:ext cx="1691808" cy="845904"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-  </dsp:spTree>
-</dsp:drawing>
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5465,18 +4410,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>101973</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36659</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagrama 2"/>
+        <xdr:cNvPr id="2" name="Diagrama 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5489,6 +4434,3836 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="295275"/>
+          <a:ext cx="1419225" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>1 - Banco de Dados</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="323850"/>
+          <a:ext cx="1381125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>2 - Interface</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="990600"/>
+          <a:ext cx="1400175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Editar cliente)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="1695450"/>
+          <a:ext cx="1390650" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>6 - Teste</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="1704975"/>
+          <a:ext cx="1457325" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Pesquisar cliente)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="1009650"/>
+          <a:ext cx="1438275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>3 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> (Incluir cliente)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Retângulo 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="295275"/>
+          <a:ext cx="1295400" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Retângulo 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="295275"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Retângulo 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="1009650"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Retângulo 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="1704975"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Retângulo 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="1704975"/>
+          <a:ext cx="1323975" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Retângulo 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="1009650"/>
+          <a:ext cx="1304925" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Retângulo 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="295275"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Retângulo 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200650" y="304800"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Retângulo 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200650" y="1019175"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Retângulo 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="1714500"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Retângulo 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="1704975"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Retângulo 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="1009650"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Retângulo 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="295275"/>
+          <a:ext cx="1295400" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Retângulo 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="295275"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Retângulo 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="1009650"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Retângulo 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="1704975"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Retângulo 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="1704975"/>
+          <a:ext cx="1323975" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Retângulo 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="1009650"/>
+          <a:ext cx="1304925" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Retângulo 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="295275"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Retângulo 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="304800"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Retângulo 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="1019175"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Retângulo 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648700" y="1714500"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Retângulo 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="1704975"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Retângulo 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="1009650"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Retângulo 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="4514850"/>
+          <a:ext cx="1495425" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>1 - Banco de Dados</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3314701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Retângulo 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="4495800"/>
+          <a:ext cx="1362076" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>2 - Interface</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3362326</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Retângulo 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="5210175"/>
+          <a:ext cx="1428751" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Editar Dados)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1952626</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3400426</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Retângulo 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238501" y="5924550"/>
+          <a:ext cx="1447800" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>6 - Teste</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Retângulo 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="5905500"/>
+          <a:ext cx="1504950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Pesquisar Quartos disponíveis)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Retângulo 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="5200650"/>
+          <a:ext cx="1504950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>3 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> (Incluir Quarto)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Retângulo 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="2400300"/>
+          <a:ext cx="1295400" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Retângulo 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="2400300"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Retângulo 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="3114675"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Retângulo 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="3810000"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Retângulo 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="3810000"/>
+          <a:ext cx="1323975" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Retângulo 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="3114675"/>
+          <a:ext cx="1304925" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Retângulo 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="2400300"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Retângulo 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="2409825"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Retângulo 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="3124200"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Retângulo 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648700" y="3819525"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Retângulo 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="3810000"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Retângulo 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3114675"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Retângulo 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="295275"/>
+          <a:ext cx="1419225" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>1 - Banco de Dados</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Retângulo 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="323850"/>
+          <a:ext cx="1381125" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>2 - Interface</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Retângulo 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="990600"/>
+          <a:ext cx="1400175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Editar quarto)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Retângulo 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="1695450"/>
+          <a:ext cx="1390650" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>6 - Teste</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Retângulo 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="1704975"/>
+          <a:ext cx="1457325" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Pesquisar quarto)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Retângulo 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="1009650"/>
+          <a:ext cx="1438275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>3 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> (Incluir quarto)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5781,8 +8556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5795,7 +8570,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5807,33 +8582,33 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="7">
-        <f t="shared" ref="E2:E11" si="0">(C2 * (1/D2))</f>
-        <v>400</v>
+        <f>(C2 * (1/D2))</f>
+        <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45">
+    <row r="3" spans="1:5" ht="45.75" customHeight="1">
       <c r="A3" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>500</v>
@@ -5842,134 +8617,134 @@
         <v>3</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" si="0"/>
+        <f>(C3 * (1/D3))</f>
         <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="37.5" customHeight="1">
       <c r="A4" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>166.66666666666666</v>
+        <f>(C4 * (1/D4))</f>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>14</v>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>166.66666666666666</v>
+        <f>(C5 * (1/D5))</f>
+        <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="45">
       <c r="A6" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>800</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f t="shared" ref="E6:E11" si="0">(C6 * (1/D6))</f>
+        <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="45">
       <c r="A10" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>200</v>
+        <v>800</v>
       </c>
-      <c r="D10" s="3">
-        <v>3</v>
+      <c r="D10" s="1">
+        <v>8</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30.75" thickBot="1">
@@ -5995,70 +8770,453 @@
     <sortCondition descending="1" ref="E2:E11"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>17</v>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="16">
+        <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>18</v>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="28">
+        <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>19</v>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="29"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="29"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="29"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="29"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="29"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="29"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="29"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="29"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="29"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="19">
+        <v>5</v>
       </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="22"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>20</v>
-      </c>
+    <row r="25" spans="1:11">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="23"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="15"/>
+    <row r="26" spans="1:11">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="23"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="15"/>
+    <row r="27" spans="1:11">
+      <c r="A27" s="20"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="20"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="20"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="20"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="34"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="34"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="34"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="34"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="34"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="34"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="34"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="34"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="34"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="34"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="15">
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="E13:E23"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="D24:D34"/>
+    <mergeCell ref="E24:E34"/>
+    <mergeCell ref="B24:B34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6066,7 +9224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815" activeTab="2"/>
@@ -12,7 +12,7 @@
     <sheet name="Sprint1" sheetId="2" r:id="rId3"/>
     <sheet name="Plan4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -372,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,24 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -420,8 +405,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2221,7 +2221,1140 @@
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns="" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
 </dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9470912" y="929867"/>
+          <a:ext cx="1025174" cy="355845"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="177922"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1025174" y="177922"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1025174" y="355845"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8445737" y="929867"/>
+          <a:ext cx="1025174" cy="355845"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1025174" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1025174" y="177922"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="177922"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="355845"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{561721DE-941D-4E73-AE63-1A5513B19025}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6325777" y="928130"/>
+          <a:ext cx="91440" cy="383177"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45753" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45753" y="205255"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="205255"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="383177"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2781622" y="910821"/>
+          <a:ext cx="91440" cy="407392"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="77966" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="77966" y="229469"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="229469"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="407392"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2859588" y="910821"/>
+          <a:ext cx="1735408" cy="412967"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="235044"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1735408" y="235044"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1735408" y="412967"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1116284" y="910821"/>
+          <a:ext cx="1743304" cy="405299"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1743304" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1743304" y="227376"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="227376"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="405299"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2012337" y="63569"/>
+          <a:ext cx="1694502" cy="847251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>5(Recepcionista) Cadastro de reservas</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2012337" y="63569"/>
+        <a:ext cx="1694502" cy="847251"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="269032" y="1316120"/>
+          <a:ext cx="1694502" cy="847251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>6(Recepcionista) Cadastro de despertador</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="269032" y="1316120"/>
+        <a:ext cx="1694502" cy="847251"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{59514516-96D5-4A15-ADFB-8636BD4637F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3817169" y="1323788"/>
+          <a:ext cx="1555655" cy="847251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>10(Gerente) Relatórios de hospedagem</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3817169" y="1323788"/>
+        <a:ext cx="1555655" cy="847251"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3B641322-069C-4EB1-BA6C-01FE9202579F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1980091" y="1318213"/>
+          <a:ext cx="1694502" cy="847251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>8(Recepcionista) Checkout e pagamento das reservas</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1980091" y="1318213"/>
+        <a:ext cx="1694502" cy="847251"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5524279" y="55283"/>
+          <a:ext cx="1694502" cy="872846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>2(Recepcionista) Cadastro de clientes</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5524279" y="55283"/>
+        <a:ext cx="1694502" cy="872846"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5524245" y="1311308"/>
+          <a:ext cx="1694502" cy="847251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>3(Gerente) Cadastro e exclusão de clientes</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5524245" y="1311308"/>
+        <a:ext cx="1694502" cy="847251"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8623660" y="82616"/>
+          <a:ext cx="1694502" cy="847251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>4(Recepcionista) Cadastro de quarto</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8623660" y="82616"/>
+        <a:ext cx="1694502" cy="847251"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7598486" y="1285713"/>
+          <a:ext cx="1694502" cy="847251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>1(Recepcionista) Quadro ocupação apartamentos</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7598486" y="1285713"/>
+        <a:ext cx="1694502" cy="847251"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9648835" y="1285713"/>
+          <a:ext cx="1694502" cy="847251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>7(Recepcionista) Controle de limpeza dos quartos</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9648835" y="1285713"/>
+        <a:ext cx="1694502" cy="847251"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10735587" y="82616"/>
+          <a:ext cx="1694502" cy="847251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>9(Gerente) Configuração de senha</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10735587" y="82616"/>
+        <a:ext cx="1694502" cy="847251"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4831,19 +5964,643 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1638300</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Retângulo 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086349" y="295275"/>
+          <a:ext cx="1495426" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa: 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1485899</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Retângulo 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524874" y="295275"/>
+          <a:ext cx="1343025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 - Banco de Dados</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Retângulo 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="295275"/>
+          <a:ext cx="1200150" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2 - Interface</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1571626</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2790826</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Retângulo 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953626" y="971550"/>
+          <a:ext cx="1219200" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Editar cliente)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Retângulo 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9991725" y="1685925"/>
+          <a:ext cx="1171575" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6 - Teste</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Retângulo 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505824" y="1704975"/>
+          <a:ext cx="1257301" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Pesquisar cliente)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1400176</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Retângulo 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="1009650"/>
+          <a:ext cx="1266826" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Incluir cliente)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Retângulo 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4894,18 +6651,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Retângulo 11"/>
+        <xdr:cNvPr id="34" name="Retângulo 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4994,18 +6751,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Retângulo 12"/>
+        <xdr:cNvPr id="35" name="Retângulo 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5094,18 +6851,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Retângulo 13"/>
+        <xdr:cNvPr id="36" name="Retângulo 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5194,18 +6951,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Retângulo 14"/>
+        <xdr:cNvPr id="37" name="Retângulo 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5294,18 +7051,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Retângulo 15"/>
+        <xdr:cNvPr id="38" name="Retângulo 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5394,23 +7151,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Retângulo 16"/>
+        <xdr:cNvPr id="39" name="Retângulo 38"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="295275"/>
+          <a:off x="7439025" y="295275"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5446,23 +7203,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Retângulo 17"/>
+        <xdr:cNvPr id="40" name="Retângulo 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5200650" y="304800"/>
+          <a:off x="8639175" y="304800"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5498,23 +7255,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Retângulo 18"/>
+        <xdr:cNvPr id="41" name="Retângulo 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5200650" y="1019175"/>
+          <a:off x="8639175" y="1019175"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5557,23 +7314,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Retângulo 19"/>
+        <xdr:cNvPr id="42" name="Retângulo 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5210175" y="1714500"/>
+          <a:off x="8648700" y="1714500"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5609,23 +7366,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Retângulo 20"/>
+        <xdr:cNvPr id="43" name="Retângulo 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="1704975"/>
+          <a:off x="7419975" y="1704975"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5668,23 +7425,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Retângulo 21"/>
+        <xdr:cNvPr id="44" name="Retângulo 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="1009650"/>
+          <a:off x="7429500" y="1009650"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5718,25 +7475,412 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Retângulo 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="4514850"/>
+          <a:ext cx="1495425" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>1 - Banco de Dados</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3314701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Retângulo 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="4495800"/>
+          <a:ext cx="1362076" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>2 - Interface</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3362326</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Retângulo 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="5210175"/>
+          <a:ext cx="1428751" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Editar Dados)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1952626</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3400426</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Retângulo 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238501" y="5924550"/>
+          <a:ext cx="1447800" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>6 - Teste</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Retângulo 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="5905500"/>
+          <a:ext cx="1504950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Pesquisar Quartos disponíveis)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Retângulo 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="5200650"/>
+          <a:ext cx="1504950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>3 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> (Incluir Quarto)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Retângulo 32"/>
+        <xdr:cNvPr id="63" name="Retângulo 62"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="295275"/>
+          <a:off x="4000500" y="2400300"/>
           <a:ext cx="1295400" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5782,23 +7926,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Retângulo 33"/>
+        <xdr:cNvPr id="64" name="Retângulo 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5829300" y="295275"/>
+          <a:off x="5829300" y="2400300"/>
           <a:ext cx="1371600" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5882,23 +8026,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Retângulo 34"/>
+        <xdr:cNvPr id="65" name="Retângulo 64"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819775" y="1009650"/>
+          <a:off x="5819775" y="3114675"/>
           <a:ext cx="1371600" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5982,23 +8126,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Retângulo 35"/>
+        <xdr:cNvPr id="66" name="Retângulo 65"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819775" y="1704975"/>
+          <a:off x="5819775" y="3810000"/>
           <a:ext cx="1362075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6082,23 +8226,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Retângulo 36"/>
+        <xdr:cNvPr id="67" name="Retângulo 66"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="1704975"/>
+          <a:off x="3981450" y="3810000"/>
           <a:ext cx="1323975" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6182,23 +8326,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Retângulo 37"/>
+        <xdr:cNvPr id="68" name="Retângulo 67"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="1009650"/>
+          <a:off x="3990975" y="3114675"/>
           <a:ext cx="1304925" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6282,1281 +8426,6 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Retângulo 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7439025" y="295275"/>
-          <a:ext cx="962025" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Retângulo 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8639175" y="304800"/>
-          <a:ext cx="962025" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Retângulo 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8639175" y="1019175"/>
-          <a:ext cx="962025" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Retângulo 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8648700" y="1714500"/>
-          <a:ext cx="962025" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Retângulo 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7419975" y="1704975"/>
-          <a:ext cx="962025" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Retângulo 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="1009650"/>
-          <a:ext cx="962025" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Retângulo 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1390650" y="4514850"/>
-          <a:ext cx="1495425" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>1 - Banco de Dados</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3314701</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Retângulo 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238500" y="4495800"/>
-          <a:ext cx="1362076" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>2 - Interface</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3362326</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Retângulo 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="5210175"/>
-          <a:ext cx="1428751" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (Editar Dados)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1952626</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3400426</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Retângulo 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238501" y="5924550"/>
-          <a:ext cx="1447800" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>6 - Teste</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Retângulo 60"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1390650" y="5905500"/>
-          <a:ext cx="1504950" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (Pesquisar Quartos disponíveis)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Retângulo 61"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1390650" y="5200650"/>
-          <a:ext cx="1504950" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>3 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t> (Incluir Quarto)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Retângulo 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="2400300"/>
-          <a:ext cx="1295400" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa:</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-BR" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável:</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Retângulo 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="2400300"/>
-          <a:ext cx="1371600" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tarefa:</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Responsável:</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Retângulo 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5819775" y="3114675"/>
-          <a:ext cx="1371600" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tarefa:</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Responsável:</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Retângulo 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5819775" y="3810000"/>
-          <a:ext cx="1362075" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tarefa:</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Responsável:</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Retângulo 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3981450" y="3810000"/>
-          <a:ext cx="1323975" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tarefa:</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Responsável:</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Retângulo 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="3114675"/>
-          <a:ext cx="1304925" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tarefa:</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Responsável:</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -8261,6 +9130,316 @@
             <a:t> (Incluir quarto)</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Retângulo 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057774" y="1000125"/>
+          <a:ext cx="1495426" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa: 3</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Retângulo 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048249" y="1685925"/>
+          <a:ext cx="1495426" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa: 5</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1790699</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3286125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Retângulo 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734174" y="314325"/>
+          <a:ext cx="1495426" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa: 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1752599</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3248025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Retângulo 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696074" y="1019175"/>
+          <a:ext cx="1495426" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa: 4</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1724024</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3219450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Retângulo 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667499" y="1714500"/>
+          <a:ext cx="1495426" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa: 6</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8793,7 +9972,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B34"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8801,7 +9980,7 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
@@ -8831,13 +10010,13 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16">
+      <c r="A2" s="17">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
@@ -8846,11 +10025,11 @@
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
@@ -8859,11 +10038,11 @@
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -8872,11 +10051,11 @@
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -8885,11 +10064,11 @@
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
@@ -8898,11 +10077,11 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -8911,11 +10090,11 @@
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="26"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -8924,11 +10103,11 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="26"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -8937,11 +10116,11 @@
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -8950,11 +10129,11 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="26"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -8963,11 +10142,11 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -8976,13 +10155,13 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -8991,11 +10170,11 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="29"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -9004,11 +10183,11 @@
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="29"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -9017,11 +10196,11 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="29"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -9030,11 +10209,11 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="29"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="32"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -9043,161 +10222,166 @@
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="29"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="32"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="29"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="32"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="29"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="32"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="29"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="29"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="19">
+      <c r="A24" s="29">
         <v>5</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="23"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="23"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="23"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="20"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="20"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="23"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="20"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="23"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="34"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="B35" s="34"/>
+      <c r="B35" s="16"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36" s="34"/>
+      <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37" s="34"/>
+      <c r="B37" s="16"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" s="34"/>
+      <c r="B38" s="16"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="B39" s="34"/>
+      <c r="B39" s="16"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="34"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="B41" s="34"/>
+      <c r="B41" s="16"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" s="34"/>
+      <c r="B42" s="16"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="B43" s="34"/>
+      <c r="B43" s="16"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="B44" s="34"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="B45" s="34"/>
+      <c r="B45" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="D24:D34"/>
+    <mergeCell ref="E24:E34"/>
+    <mergeCell ref="B24:B34"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="D2:D12"/>
     <mergeCell ref="E2:E12"/>
@@ -9208,11 +10392,6 @@
     <mergeCell ref="E13:E23"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B12"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="C24:C34"/>
-    <mergeCell ref="D24:D34"/>
-    <mergeCell ref="E24:E34"/>
-    <mergeCell ref="B24:B34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815" activeTab="2"/>
   </bookViews>
@@ -10,9 +10,8 @@
     <sheet name="Lista de Requisitos" sheetId="1" r:id="rId1"/>
     <sheet name="Hierarquia dos Requisitos" sheetId="3" r:id="rId2"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId3"/>
-    <sheet name="Plan4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -335,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -384,9 +383,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,24 +422,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2221,1140 +2222,7 @@
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
-  <dgm:extLst>
-    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns="" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-    </a:ext>
-  </dgm:extLst>
 </dgm:dataModel>
-</file>
-
-<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram">
-  <dsp:spTree>
-    <dsp:nvGrpSpPr>
-      <dsp:cNvPr id="0" name=""/>
-      <dsp:cNvGrpSpPr/>
-    </dsp:nvGrpSpPr>
-    <dsp:grpSpPr/>
-    <dsp:sp modelId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="9470912" y="929867"/>
-          <a:ext cx="1025174" cy="355845"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="177922"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1025174" y="177922"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1025174" y="355845"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8445737" y="929867"/>
-          <a:ext cx="1025174" cy="355845"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="1025174" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1025174" y="177922"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="177922"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="355845"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{561721DE-941D-4E73-AE63-1A5513B19025}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6325777" y="928130"/>
-          <a:ext cx="91440" cy="383177"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="45753" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="45753" y="205255"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="205255"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="383177"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2781622" y="910821"/>
-          <a:ext cx="91440" cy="407392"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="77966" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="77966" y="229469"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="229469"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="407392"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2859588" y="910821"/>
-          <a:ext cx="1735408" cy="412967"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="235044"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1735408" y="235044"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1735408" y="412967"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1116284" y="910821"/>
-          <a:ext cx="1743304" cy="405299"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="1743304" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1743304" y="227376"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="227376"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="405299"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2012337" y="63569"/>
-          <a:ext cx="1694502" cy="847251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>5(Recepcionista) Cadastro de reservas</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2012337" y="63569"/>
-        <a:ext cx="1694502" cy="847251"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="269032" y="1316120"/>
-          <a:ext cx="1694502" cy="847251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>6(Recepcionista) Cadastro de despertador</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="269032" y="1316120"/>
-        <a:ext cx="1694502" cy="847251"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{59514516-96D5-4A15-ADFB-8636BD4637F9}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3817169" y="1323788"/>
-          <a:ext cx="1555655" cy="847251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>10(Gerente) Relatórios de hospedagem</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3817169" y="1323788"/>
-        <a:ext cx="1555655" cy="847251"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{3B641322-069C-4EB1-BA6C-01FE9202579F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1980091" y="1318213"/>
-          <a:ext cx="1694502" cy="847251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>8(Recepcionista) Checkout e pagamento das reservas</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1980091" y="1318213"/>
-        <a:ext cx="1694502" cy="847251"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5524279" y="55283"/>
-          <a:ext cx="1694502" cy="872846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>2(Recepcionista) Cadastro de clientes</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5524279" y="55283"/>
-        <a:ext cx="1694502" cy="872846"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5524245" y="1311308"/>
-          <a:ext cx="1694502" cy="847251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>3(Gerente) Cadastro e exclusão de clientes</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5524245" y="1311308"/>
-        <a:ext cx="1694502" cy="847251"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8623660" y="82616"/>
-          <a:ext cx="1694502" cy="847251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>4(Recepcionista) Cadastro de quarto</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8623660" y="82616"/>
-        <a:ext cx="1694502" cy="847251"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7598486" y="1285713"/>
-          <a:ext cx="1694502" cy="847251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>1(Recepcionista) Quadro ocupação apartamentos</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="7598486" y="1285713"/>
-        <a:ext cx="1694502" cy="847251"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="9648835" y="1285713"/>
-          <a:ext cx="1694502" cy="847251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>7(Recepcionista) Controle de limpeza dos quartos</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="9648835" y="1285713"/>
-        <a:ext cx="1694502" cy="847251"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="10735587" y="82616"/>
-          <a:ext cx="1694502" cy="847251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
-            <a:t>9(Gerente) Configuração de senha</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="10735587" y="82616"/>
-        <a:ext cx="1694502" cy="847251"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-  </dsp:spTree>
-</dsp:drawing>
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5964,643 +4832,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:colOff>1438275</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Retângulo 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5086349" y="295275"/>
-          <a:ext cx="1495426" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa: 1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-BR" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável: Rodrigo</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1485899</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Retângulo 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8524874" y="295275"/>
-          <a:ext cx="1343025" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1 - Banco de Dados</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2819400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Retângulo 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10001250" y="295275"/>
-          <a:ext cx="1200150" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2 - Interface</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1571626</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2790826</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Retângulo 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9953626" y="971550"/>
-          <a:ext cx="1219200" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (Editar cliente)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Retângulo 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9991725" y="1685925"/>
-          <a:ext cx="1171575" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>6 - Teste</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Retângulo 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8505824" y="1704975"/>
-          <a:ext cx="1257301" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (Pesquisar cliente)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1400176</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Retângulo 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8515350" y="1009650"/>
-          <a:ext cx="1266826" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (Incluir cliente)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Retângulo 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6651,18 +4895,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Retângulo 33"/>
+        <xdr:cNvPr id="12" name="Retângulo 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6751,18 +4995,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Retângulo 34"/>
+        <xdr:cNvPr id="13" name="Retângulo 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6851,18 +5095,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Retângulo 35"/>
+        <xdr:cNvPr id="14" name="Retângulo 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6951,18 +5195,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Retângulo 36"/>
+        <xdr:cNvPr id="15" name="Retângulo 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7051,18 +5295,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Retângulo 37"/>
+        <xdr:cNvPr id="16" name="Retângulo 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7151,23 +5395,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Retângulo 38"/>
+        <xdr:cNvPr id="17" name="Retângulo 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439025" y="295275"/>
+          <a:off x="4000500" y="295275"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7203,23 +5447,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Retângulo 39"/>
+        <xdr:cNvPr id="18" name="Retângulo 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639175" y="304800"/>
+          <a:off x="5200650" y="304800"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7255,23 +5499,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Retângulo 40"/>
+        <xdr:cNvPr id="19" name="Retângulo 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639175" y="1019175"/>
+          <a:off x="5200650" y="1019175"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7314,23 +5558,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Retângulo 41"/>
+        <xdr:cNvPr id="20" name="Retângulo 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648700" y="1714500"/>
+          <a:off x="5210175" y="1714500"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7366,23 +5610,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Retângulo 42"/>
+        <xdr:cNvPr id="21" name="Retângulo 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7419975" y="1704975"/>
+          <a:off x="3981450" y="1704975"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7425,23 +5669,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Retângulo 43"/>
+        <xdr:cNvPr id="22" name="Retângulo 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7429500" y="1009650"/>
+          <a:off x="8515350" y="1009650"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7475,412 +5719,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Retângulo 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1390650" y="4514850"/>
-          <a:ext cx="1495425" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>1 - Banco de Dados</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3314701</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Retângulo 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238500" y="4495800"/>
-          <a:ext cx="1362076" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>2 - Interface</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3362326</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Retângulo 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="5210175"/>
-          <a:ext cx="1428751" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (Editar Dados)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1952626</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3400426</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Retângulo 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238501" y="5924550"/>
-          <a:ext cx="1447800" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>6 - Teste</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Retângulo 60"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1390650" y="5905500"/>
-          <a:ext cx="1504950" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (Pesquisar Quartos disponíveis)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Retângulo 61"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1390650" y="5200650"/>
-          <a:ext cx="1504950" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>3 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t> (Incluir Quarto)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Retângulo 62"/>
+        <xdr:cNvPr id="33" name="Retângulo 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="2400300"/>
+          <a:off x="4000500" y="295275"/>
           <a:ext cx="1295400" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7926,23 +5783,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Retângulo 63"/>
+        <xdr:cNvPr id="34" name="Retângulo 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5829300" y="2400300"/>
+          <a:off x="5829300" y="295275"/>
           <a:ext cx="1371600" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8026,23 +5883,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Retângulo 64"/>
+        <xdr:cNvPr id="35" name="Retângulo 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819775" y="3114675"/>
+          <a:off x="6905625" y="3114675"/>
           <a:ext cx="1371600" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8126,23 +5983,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Retângulo 65"/>
+        <xdr:cNvPr id="36" name="Retângulo 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819775" y="3810000"/>
+          <a:off x="5819775" y="1704975"/>
           <a:ext cx="1362075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8226,23 +6083,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Retângulo 66"/>
+        <xdr:cNvPr id="37" name="Retângulo 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="3810000"/>
+          <a:off x="3981450" y="1704975"/>
           <a:ext cx="1323975" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8326,23 +6183,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Retângulo 67"/>
+        <xdr:cNvPr id="38" name="Retângulo 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="3114675"/>
+          <a:off x="3990975" y="1009650"/>
           <a:ext cx="1304925" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8426,14 +6283,1289 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Retângulo 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="295275"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Retângulo 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="304800"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Retângulo 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="1019175"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Retângulo 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648700" y="1714500"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Retângulo 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="1704975"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Retângulo 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="3114675"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Retângulo 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="4514850"/>
+          <a:ext cx="1495425" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>1 - Banco de Dados</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3314701</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Retângulo 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="4495800"/>
+          <a:ext cx="1362076" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>2 - Interface</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3362326</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Retângulo 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="5210175"/>
+          <a:ext cx="1428751" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Pesquisar quarto disponível)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1628774</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Retângulo 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362076" y="7315200"/>
+          <a:ext cx="1552573" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>9 - Teste</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Retângulo 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="5905500"/>
+          <a:ext cx="1504950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Incluir reserva)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Retângulo 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="5200650"/>
+          <a:ext cx="1504950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>3 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> (Pesquisar cliente)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Retângulo 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="2400300"/>
+          <a:ext cx="1295400" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Retângulo 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="2400300"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Retângulo 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="3114675"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Retângulo 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="3810000"/>
+          <a:ext cx="1362075" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Retângulo 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="3810000"/>
+          <a:ext cx="1323975" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Retângulo 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="3114675"/>
+          <a:ext cx="1304925" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8442,7 +7574,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439025" y="2400300"/>
+          <a:off x="8496300" y="6619875"/>
           <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8478,13 +7610,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8530,13 +7662,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8589,13 +7721,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8641,13 +7773,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8700,13 +7832,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8942,15 +8074,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1924050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3314700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1590674</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8959,8 +8091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="1695450"/>
-          <a:ext cx="1390650" cy="514350"/>
+          <a:off x="1400174" y="4495800"/>
+          <a:ext cx="1476375" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9004,8 +8136,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9137,16 +8269,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3381375</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9155,8 +8287,251 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5057774" y="1000125"/>
-          <a:ext cx="1495426" cy="514350"/>
+          <a:off x="3162300" y="6610350"/>
+          <a:ext cx="1504950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Pesquisar reserva)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Retângulo 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="6619875"/>
+          <a:ext cx="1504950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Excluir reserva)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3400425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Retângulo 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="5905500"/>
+          <a:ext cx="1504950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Editar reserva)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Retângulo 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="6619875"/>
+          <a:ext cx="1323975" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9180,18 +8555,56 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa: 3</a:t>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável: Rodrigo</a:t>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9200,25 +8613,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Retângulo 74"/>
+        <xdr:cNvPr id="78" name="Retângulo 77"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048249" y="1685925"/>
-          <a:ext cx="1495426" cy="514350"/>
+          <a:off x="6915150" y="6600825"/>
+          <a:ext cx="1323975" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9242,18 +8655,56 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa: 5</a:t>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável: Rodrigo</a:t>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9262,25 +8713,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1790699</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3286125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Retângulo 75"/>
+        <xdr:cNvPr id="79" name="Retângulo 78"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734174" y="314325"/>
-          <a:ext cx="1495426" cy="514350"/>
+          <a:off x="5029200" y="7305675"/>
+          <a:ext cx="1323975" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9304,18 +8755,293 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa: 2</a:t>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável: Rodrigo</a:t>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Retângulo 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543925" y="4543425"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Retângulo 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744075" y="6629400"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Retângulo 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486775" y="7315200"/>
+          <a:ext cx="962025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3409950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Retângulo 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3819525"/>
+          <a:ext cx="1457325" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Excluir quarto)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9324,25 +9050,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1752599</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3248025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Retângulo 76"/>
+        <xdr:cNvPr id="84" name="Retângulo 83"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696074" y="1019175"/>
-          <a:ext cx="1495426" cy="514350"/>
+          <a:off x="5048250" y="4524375"/>
+          <a:ext cx="1323975" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9366,18 +9092,56 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa: 4</a:t>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável: Rodrigo</a:t>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9385,26 +9149,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1724024</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3219450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Retângulo 77"/>
+        <xdr:cNvPr id="85" name="Retângulo 84"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667499" y="1714500"/>
-          <a:ext cx="1495426" cy="514350"/>
+          <a:off x="8524875" y="4505325"/>
+          <a:ext cx="962025" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9415,10 +9179,10 @@
           <a:schemeClr val="lt1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -9428,18 +9192,15 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa: 6</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-BR" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável: Rodrigo</a:t>
-          </a:r>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9733,6 +9494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan1"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9954,6 +9716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9969,10 +9732,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <sheetPr codeName="Plan4"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9980,7 +9744,7 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
@@ -10016,7 +9780,7 @@
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
@@ -10025,11 +9789,11 @@
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="18"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
@@ -10038,11 +9802,11 @@
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="18"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -10051,11 +9815,11 @@
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -10064,11 +9828,11 @@
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="18"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
@@ -10077,11 +9841,11 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="18"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -10090,11 +9854,11 @@
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="18"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -10103,11 +9867,11 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="18"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -10116,11 +9880,11 @@
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="18"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -10129,11 +9893,11 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="18"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -10142,11 +9906,11 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -10155,13 +9919,13 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="23">
+      <c r="A13" s="31">
         <v>4</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -10170,11 +9934,11 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="27"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -10183,11 +9947,11 @@
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -10196,11 +9960,11 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="27"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -10209,11 +9973,11 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="24"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="27"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -10222,193 +9986,239 @@
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="24"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="27"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="24"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="27"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="24"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="27"/>
+      <c r="E22" s="35"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="28"/>
+    <row r="23" spans="1:11">
+      <c r="A23" s="32"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="29">
-        <v>5</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="30"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="33"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="30"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="35"/>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="30"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="33"/>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="30"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="20">
+        <v>5</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="30"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="33"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="30"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="33"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="30"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="33"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="30"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="33"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="30"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="33"/>
+      <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="34"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="21"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="B35" s="16"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36" s="16"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37" s="16"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" s="16"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="B39" s="16"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="16"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="B41" s="16"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" s="16"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="B43" s="16"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="B44" s="16"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="B45" s="16"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="C24:C34"/>
-    <mergeCell ref="D24:D34"/>
-    <mergeCell ref="E24:E34"/>
-    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="A13:A27"/>
+    <mergeCell ref="B13:B27"/>
+    <mergeCell ref="C13:C27"/>
+    <mergeCell ref="D13:D27"/>
+    <mergeCell ref="E13:E27"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="D2:D12"/>
     <mergeCell ref="E2:E12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="E13:E23"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B28:B46"/>
+    <mergeCell ref="A28:A46"/>
+    <mergeCell ref="C28:C46"/>
+    <mergeCell ref="D28:D46"/>
+    <mergeCell ref="E28:E46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements V2(Apr 22) - RequisitosAnaliseProjeto - docx.xlsx
@@ -374,6 +374,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,6 +392,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,29 +422,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9498,7 +9498,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9735,8 +9735,8 @@
   <sheetPr codeName="Plan4"/>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9774,12 +9774,12 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="17">
+      <c r="A2" s="20">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="26"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -9790,9 +9790,9 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="29"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="27"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -9803,9 +9803,9 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="29"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="27"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -9816,9 +9816,9 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="29"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="27"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -9829,9 +9829,9 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="29"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="27"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -9842,9 +9842,9 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="29"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="27"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -9855,9 +9855,9 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="29"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="27"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -9868,9 +9868,9 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="29"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="27"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -9881,9 +9881,9 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="29"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="27"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -9894,9 +9894,9 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="29"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="27"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -9907,9 +9907,9 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
       <c r="A12" s="30"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="28"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -9919,13 +9919,13 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="31">
+      <c r="A13" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -9934,11 +9934,11 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="32"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="35"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -9947,11 +9947,11 @@
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="32"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="35"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -9960,11 +9960,11 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="32"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="35"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -9973,11 +9973,11 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="32"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="35"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -9986,209 +9986,209 @@
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="32"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="35"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="32"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="35"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="32"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="35"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="32"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="35"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="32"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="35"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="32"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="35"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="32"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="35"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="32"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="35"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="32"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="35"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="36"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20">
+      <c r="A28" s="31">
         <v>5</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="21"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="21"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="21"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="24"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="21"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="35"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="24"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="35"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="21"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="24"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="24"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="35"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="21"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="24"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="35"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="21"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="24"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="21"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="24"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="21"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="24"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="35"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="21"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="24"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="35"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="21"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="24"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="21"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="24"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="35"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="25"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" s="16"/>
@@ -10201,21 +10201,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B28:B46"/>
+    <mergeCell ref="A28:A46"/>
+    <mergeCell ref="C28:C46"/>
+    <mergeCell ref="D28:D46"/>
+    <mergeCell ref="E28:E46"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
     <mergeCell ref="A13:A27"/>
     <mergeCell ref="B13:B27"/>
     <mergeCell ref="C13:C27"/>
     <mergeCell ref="D13:D27"/>
     <mergeCell ref="E13:E27"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="D2:D12"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B28:B46"/>
-    <mergeCell ref="A28:A46"/>
-    <mergeCell ref="C28:C46"/>
-    <mergeCell ref="D28:D46"/>
-    <mergeCell ref="E28:E46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
